--- a/Garmin Project/Garmin Dataset 1.xlsx
+++ b/Garmin Project/Garmin Dataset 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>totalKilocalories</t>
   </si>
@@ -52,132 +52,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>06-10-22</t>
-  </si>
-  <si>
-    <t>06-11-22</t>
-  </si>
-  <si>
-    <t>06-12-22</t>
-  </si>
-  <si>
-    <t>06-13-22</t>
-  </si>
-  <si>
-    <t>06-14-22</t>
-  </si>
-  <si>
-    <t>06-15-22</t>
-  </si>
-  <si>
-    <t>06-16-22</t>
-  </si>
-  <si>
-    <t>06-17-22</t>
-  </si>
-  <si>
-    <t>06-18-22</t>
-  </si>
-  <si>
-    <t>06-19-22</t>
-  </si>
-  <si>
-    <t>06-20-22</t>
-  </si>
-  <si>
-    <t>06-21-22</t>
-  </si>
-  <si>
-    <t>06-22-22</t>
-  </si>
-  <si>
-    <t>06-23-22</t>
-  </si>
-  <si>
-    <t>06-24-22</t>
-  </si>
-  <si>
-    <t>06-25-22</t>
-  </si>
-  <si>
-    <t>06-26-22</t>
-  </si>
-  <si>
-    <t>06-27-22</t>
-  </si>
-  <si>
-    <t>06-28-22</t>
-  </si>
-  <si>
-    <t>06-29-22</t>
-  </si>
-  <si>
-    <t>06-30-22</t>
-  </si>
-  <si>
-    <t>07-01-22</t>
-  </si>
-  <si>
-    <t>07-02-22</t>
-  </si>
-  <si>
-    <t>07-03-22</t>
-  </si>
-  <si>
-    <t>07-04-22</t>
-  </si>
-  <si>
-    <t>07-05-22</t>
-  </si>
-  <si>
-    <t>07-06-22</t>
-  </si>
-  <si>
-    <t>07-07-22</t>
-  </si>
-  <si>
-    <t>07-08-22</t>
-  </si>
-  <si>
-    <t>07-09-22</t>
-  </si>
-  <si>
-    <t>07-10-22</t>
-  </si>
-  <si>
-    <t>07-11-22</t>
-  </si>
-  <si>
-    <t>07-12-22</t>
-  </si>
-  <si>
-    <t>07-13-22</t>
-  </si>
-  <si>
-    <t>07-14-22</t>
-  </si>
-  <si>
-    <t>07-15-22</t>
-  </si>
-  <si>
-    <t>07-16-22</t>
-  </si>
-  <si>
-    <t>07-17-22</t>
-  </si>
-  <si>
-    <t>07-18-22</t>
-  </si>
-  <si>
-    <t>07-19-22</t>
-  </si>
-  <si>
-    <t>07-20-22</t>
-  </si>
-  <si>
-    <t>07-21-22</t>
-  </si>
-  <si>
     <t>07-24-22</t>
   </si>
   <si>
@@ -296,6 +170,156 @@
   </si>
   <si>
     <t>09-09-22</t>
+  </si>
+  <si>
+    <t>09-10-22</t>
+  </si>
+  <si>
+    <t>09-11-22</t>
+  </si>
+  <si>
+    <t>09-13-22</t>
+  </si>
+  <si>
+    <t>09-14-22</t>
+  </si>
+  <si>
+    <t>09-15-22</t>
+  </si>
+  <si>
+    <t>09-16-22</t>
+  </si>
+  <si>
+    <t>09-17-22</t>
+  </si>
+  <si>
+    <t>09-18-22</t>
+  </si>
+  <si>
+    <t>09-19-22</t>
+  </si>
+  <si>
+    <t>09-20-22</t>
+  </si>
+  <si>
+    <t>09-21-22</t>
+  </si>
+  <si>
+    <t>09-22-22</t>
+  </si>
+  <si>
+    <t>09-23-22</t>
+  </si>
+  <si>
+    <t>09-24-22</t>
+  </si>
+  <si>
+    <t>09-25-22</t>
+  </si>
+  <si>
+    <t>09-26-22</t>
+  </si>
+  <si>
+    <t>09-27-22</t>
+  </si>
+  <si>
+    <t>09-28-22</t>
+  </si>
+  <si>
+    <t>09-29-22</t>
+  </si>
+  <si>
+    <t>09-30-22</t>
+  </si>
+  <si>
+    <t>10-01-22</t>
+  </si>
+  <si>
+    <t>10-02-22</t>
+  </si>
+  <si>
+    <t>10-03-22</t>
+  </si>
+  <si>
+    <t>10-04-22</t>
+  </si>
+  <si>
+    <t>10-05-22</t>
+  </si>
+  <si>
+    <t>10-06-22</t>
+  </si>
+  <si>
+    <t>10-07-22</t>
+  </si>
+  <si>
+    <t>10-08-22</t>
+  </si>
+  <si>
+    <t>10-09-22</t>
+  </si>
+  <si>
+    <t>10-10-22</t>
+  </si>
+  <si>
+    <t>10-11-22</t>
+  </si>
+  <si>
+    <t>10-12-22</t>
+  </si>
+  <si>
+    <t>10-13-22</t>
+  </si>
+  <si>
+    <t>10-14-22</t>
+  </si>
+  <si>
+    <t>10-15-22</t>
+  </si>
+  <si>
+    <t>10-16-22</t>
+  </si>
+  <si>
+    <t>10-17-22</t>
+  </si>
+  <si>
+    <t>10-18-22</t>
+  </si>
+  <si>
+    <t>10-19-22</t>
+  </si>
+  <si>
+    <t>10-20-22</t>
+  </si>
+  <si>
+    <t>10-21-22</t>
+  </si>
+  <si>
+    <t>10-22-22</t>
+  </si>
+  <si>
+    <t>10-23-22</t>
+  </si>
+  <si>
+    <t>10-24-22</t>
+  </si>
+  <si>
+    <t>10-25-22</t>
+  </si>
+  <si>
+    <t>10-26-22</t>
+  </si>
+  <si>
+    <t>10-27-22</t>
+  </si>
+  <si>
+    <t>10-28-22</t>
+  </si>
+  <si>
+    <t>10-29-22</t>
+  </si>
+  <si>
+    <t>10-30-22</t>
   </si>
 </sst>
 </file>
@@ -653,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,13 +726,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2411</v>
+        <v>2302</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>2261</v>
@@ -717,28 +741,28 @@
         <v>2261</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>55</v>
       </c>
       <c r="H2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>3126</v>
+        <v>872</v>
       </c>
       <c r="J2">
-        <v>3735</v>
+        <v>1047</v>
       </c>
       <c r="K2">
-        <v>6780</v>
+        <v>4720</v>
       </c>
       <c r="L2">
-        <v>1055</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>3355</v>
+        <v>920</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
@@ -746,13 +770,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2452</v>
+        <v>2390</v>
       </c>
       <c r="C3">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>2261</v>
@@ -761,28 +785,28 @@
         <v>2261</v>
       </c>
       <c r="F3">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>57</v>
       </c>
       <c r="H3">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I3">
-        <v>3870</v>
+        <v>3367</v>
       </c>
       <c r="J3">
-        <v>4648</v>
+        <v>3995</v>
       </c>
       <c r="K3">
-        <v>6180</v>
+        <v>3990</v>
       </c>
       <c r="L3">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="M3">
-        <v>5025</v>
+        <v>2772</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -790,13 +814,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2443</v>
+        <v>3223</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>962</v>
       </c>
       <c r="D4">
         <v>2261</v>
@@ -805,28 +829,28 @@
         <v>2261</v>
       </c>
       <c r="F4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="I4">
-        <v>3401</v>
+        <v>11475</v>
       </c>
       <c r="J4">
-        <v>4085</v>
+        <v>11072</v>
       </c>
       <c r="K4">
-        <v>5880</v>
+        <v>4000</v>
       </c>
       <c r="L4">
-        <v>780</v>
+        <v>3538</v>
       </c>
       <c r="M4">
-        <v>4540</v>
+        <v>4135</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -834,13 +858,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2514</v>
+        <v>2654</v>
       </c>
       <c r="C5">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="D5">
         <v>2261</v>
@@ -849,28 +873,28 @@
         <v>2261</v>
       </c>
       <c r="F5">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="I5">
-        <v>5825</v>
+        <v>6128</v>
       </c>
       <c r="J5">
-        <v>6996</v>
+        <v>6292</v>
       </c>
       <c r="K5">
-        <v>5530</v>
+        <v>5420</v>
       </c>
       <c r="L5">
-        <v>1245</v>
+        <v>1755</v>
       </c>
       <c r="M5">
-        <v>6213</v>
+        <v>2688</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -878,13 +902,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2400</v>
+        <v>2437</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>2261</v>
@@ -893,28 +917,28 @@
         <v>2261</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I6">
-        <v>3221</v>
+        <v>3856</v>
       </c>
       <c r="J6">
-        <v>3853</v>
+        <v>4612</v>
       </c>
       <c r="K6">
-        <v>5680</v>
+        <v>5600</v>
       </c>
       <c r="L6">
-        <v>330</v>
+        <v>1515</v>
       </c>
       <c r="M6">
-        <v>4240</v>
+        <v>4551</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -922,13 +946,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2350</v>
+        <v>2307</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>2261</v>
@@ -937,28 +961,28 @@
         <v>2261</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I7">
-        <v>2231</v>
+        <v>1067</v>
       </c>
       <c r="J7">
-        <v>2680</v>
+        <v>1281</v>
       </c>
       <c r="K7">
-        <v>5500</v>
+        <v>5510</v>
       </c>
       <c r="L7">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1994</v>
+        <v>795</v>
       </c>
       <c r="N7" t="s">
         <v>17</v>
@@ -966,13 +990,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2281</v>
+        <v>3027</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>766</v>
       </c>
       <c r="D8">
         <v>2261</v>
@@ -981,28 +1005,28 @@
         <v>2261</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="I8">
-        <v>460</v>
+        <v>11643</v>
       </c>
       <c r="J8">
-        <v>553</v>
+        <v>12519</v>
       </c>
       <c r="K8">
-        <v>4940</v>
+        <v>4670</v>
       </c>
       <c r="L8">
-        <v>115</v>
+        <v>5006</v>
       </c>
       <c r="M8">
-        <v>860</v>
+        <v>3535</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
@@ -1010,13 +1034,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2504</v>
+        <v>2383</v>
       </c>
       <c r="C9">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>2261</v>
@@ -1031,22 +1055,22 @@
         <v>57</v>
       </c>
       <c r="H9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9">
-        <v>4668</v>
+        <v>2881</v>
       </c>
       <c r="J9">
-        <v>5594</v>
+        <v>3460</v>
       </c>
       <c r="K9">
-        <v>4070</v>
+        <v>5460</v>
       </c>
       <c r="L9">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="M9">
-        <v>6315</v>
+        <v>2725</v>
       </c>
       <c r="N9" t="s">
         <v>19</v>
@@ -1054,13 +1078,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2679</v>
+        <v>2409</v>
       </c>
       <c r="C10">
-        <v>418</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>2261</v>
@@ -1069,28 +1093,28 @@
         <v>2261</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>56</v>
       </c>
       <c r="H10">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I10">
-        <v>11661</v>
+        <v>2773</v>
       </c>
       <c r="J10">
-        <v>13973</v>
+        <v>3291</v>
       </c>
       <c r="K10">
-        <v>4230</v>
+        <v>5260</v>
       </c>
       <c r="L10">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="M10">
-        <v>13774</v>
+        <v>2525</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
@@ -1098,13 +1122,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2344</v>
+        <v>3176</v>
       </c>
       <c r="C11">
-        <v>83</v>
+        <v>915</v>
       </c>
       <c r="D11">
         <v>2261</v>
@@ -1113,28 +1137,28 @@
         <v>2261</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="I11">
-        <v>3071</v>
+        <v>9343</v>
       </c>
       <c r="J11">
-        <v>3689</v>
+        <v>8207</v>
       </c>
       <c r="K11">
-        <v>6180</v>
+        <v>4870</v>
       </c>
       <c r="L11">
-        <v>285</v>
+        <v>3357</v>
       </c>
       <c r="M11">
-        <v>3046</v>
+        <v>2601</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
@@ -1142,13 +1166,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>2355</v>
+        <v>2684</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="D12">
         <v>2261</v>
@@ -1157,28 +1181,28 @@
         <v>2261</v>
       </c>
       <c r="F12">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="I12">
-        <v>778</v>
+        <v>4468</v>
       </c>
       <c r="J12">
-        <v>934</v>
+        <v>4508</v>
       </c>
       <c r="K12">
-        <v>5930</v>
+        <v>5210</v>
       </c>
       <c r="L12">
-        <v>270</v>
+        <v>1046</v>
       </c>
       <c r="M12">
-        <v>1815</v>
+        <v>2024</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -1186,13 +1210,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>2394</v>
+        <v>2412</v>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>2261</v>
@@ -1201,28 +1225,28 @@
         <v>2261</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I13">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="J13">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="K13">
-        <v>4930</v>
+        <v>5140</v>
       </c>
       <c r="L13">
-        <v>315</v>
+        <v>615</v>
       </c>
       <c r="M13">
-        <v>3697</v>
+        <v>3586</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
@@ -1230,13 +1254,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>2897</v>
+        <v>2805</v>
       </c>
       <c r="C14">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="D14">
         <v>2261</v>
@@ -1245,28 +1269,28 @@
         <v>2261</v>
       </c>
       <c r="F14">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G14">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I14">
-        <v>9372</v>
+        <v>8059</v>
       </c>
       <c r="J14">
-        <v>9922</v>
+        <v>8026</v>
       </c>
       <c r="K14">
-        <v>4610</v>
+        <v>4780</v>
       </c>
       <c r="L14">
-        <v>2662</v>
+        <v>3312</v>
       </c>
       <c r="M14">
-        <v>5030</v>
+        <v>3250</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
@@ -1274,13 +1298,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2310</v>
+        <v>3466</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>1205</v>
       </c>
       <c r="D15">
         <v>2261</v>
@@ -1289,28 +1313,28 @@
         <v>2261</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="I15">
-        <v>1345</v>
+        <v>16118</v>
       </c>
       <c r="J15">
-        <v>1604</v>
+        <v>14927</v>
       </c>
       <c r="K15">
-        <v>5150</v>
+        <v>5110</v>
       </c>
       <c r="L15">
-        <v>225</v>
+        <v>4763</v>
       </c>
       <c r="M15">
-        <v>1304</v>
+        <v>3344</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
@@ -1318,13 +1342,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2456</v>
+        <v>2406</v>
       </c>
       <c r="C16">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>2261</v>
@@ -1333,28 +1357,28 @@
         <v>2261</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>54</v>
       </c>
       <c r="H16">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I16">
-        <v>3747</v>
+        <v>2688</v>
       </c>
       <c r="J16">
-        <v>4501</v>
+        <v>3216</v>
       </c>
       <c r="K16">
-        <v>4800</v>
+        <v>5110</v>
       </c>
       <c r="L16">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="M16">
-        <v>5280</v>
+        <v>4176</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
@@ -1362,13 +1386,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>3099</v>
+        <v>2974</v>
       </c>
       <c r="C17">
-        <v>838</v>
+        <v>713</v>
       </c>
       <c r="D17">
         <v>2261</v>
@@ -1377,28 +1401,28 @@
         <v>2261</v>
       </c>
       <c r="F17">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I17">
-        <v>11695</v>
+        <v>10982</v>
       </c>
       <c r="J17">
-        <v>11924</v>
+        <v>10756</v>
       </c>
       <c r="K17">
         <v>4740</v>
       </c>
       <c r="L17">
-        <v>3867</v>
+        <v>3439</v>
       </c>
       <c r="M17">
-        <v>6818</v>
+        <v>3564</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
@@ -1406,13 +1430,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>2427</v>
+        <v>2760</v>
       </c>
       <c r="C18">
-        <v>166</v>
+        <v>499</v>
       </c>
       <c r="D18">
         <v>2261</v>
@@ -1421,28 +1445,28 @@
         <v>2261</v>
       </c>
       <c r="F18">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18">
         <v>56</v>
       </c>
       <c r="H18">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="I18">
-        <v>4378</v>
+        <v>7517</v>
       </c>
       <c r="J18">
-        <v>5258</v>
+        <v>7126</v>
       </c>
       <c r="K18">
-        <v>5460</v>
+        <v>5350</v>
       </c>
       <c r="L18">
-        <v>810</v>
+        <v>2460</v>
       </c>
       <c r="M18">
-        <v>6810</v>
+        <v>2398</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
@@ -1450,13 +1474,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>2322</v>
+        <v>2331</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>2261</v>
@@ -1465,28 +1489,28 @@
         <v>2261</v>
       </c>
       <c r="F19">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I19">
-        <v>1450</v>
+        <v>1897</v>
       </c>
       <c r="J19">
-        <v>1742</v>
+        <v>2278</v>
       </c>
       <c r="K19">
-        <v>5440</v>
+        <v>5710</v>
       </c>
       <c r="L19">
-        <v>635</v>
+        <v>155</v>
       </c>
       <c r="M19">
-        <v>1840</v>
+        <v>2080</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
@@ -1494,13 +1518,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>2383</v>
+        <v>3091</v>
       </c>
       <c r="C20">
-        <v>122</v>
+        <v>830</v>
       </c>
       <c r="D20">
         <v>2261</v>
@@ -1509,28 +1533,28 @@
         <v>2261</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="I20">
-        <v>2681</v>
+        <v>10629</v>
       </c>
       <c r="J20">
-        <v>3220</v>
+        <v>10244</v>
       </c>
       <c r="K20">
-        <v>4700</v>
+        <v>5370</v>
       </c>
       <c r="L20">
-        <v>545</v>
+        <v>3164</v>
       </c>
       <c r="M20">
-        <v>2700</v>
+        <v>3749</v>
       </c>
       <c r="N20" t="s">
         <v>30</v>
@@ -1538,13 +1562,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2946</v>
+        <v>2503</v>
       </c>
       <c r="C21">
-        <v>685</v>
+        <v>242</v>
       </c>
       <c r="D21">
         <v>2261</v>
@@ -1553,28 +1577,28 @@
         <v>2261</v>
       </c>
       <c r="F21">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="I21">
-        <v>8658</v>
+        <v>3569</v>
       </c>
       <c r="J21">
-        <v>8864</v>
+        <v>4286</v>
       </c>
       <c r="K21">
-        <v>4410</v>
+        <v>5860</v>
       </c>
       <c r="L21">
-        <v>2656</v>
+        <v>637</v>
       </c>
       <c r="M21">
-        <v>4610</v>
+        <v>4434</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -1582,13 +1606,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>2346</v>
+        <v>2868</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>607</v>
       </c>
       <c r="D22">
         <v>2261</v>
@@ -1597,28 +1621,28 @@
         <v>2261</v>
       </c>
       <c r="F22">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H22">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="I22">
-        <v>2071</v>
+        <v>8075</v>
       </c>
       <c r="J22">
-        <v>2487</v>
+        <v>8805</v>
       </c>
       <c r="K22">
-        <v>4860</v>
+        <v>5710</v>
       </c>
       <c r="L22">
-        <v>281</v>
+        <v>3801</v>
       </c>
       <c r="M22">
-        <v>2810</v>
+        <v>1310</v>
       </c>
       <c r="N22" t="s">
         <v>32</v>
@@ -1626,13 +1650,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>2522</v>
+        <v>2355</v>
       </c>
       <c r="C23">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>2261</v>
@@ -1641,28 +1665,28 @@
         <v>2261</v>
       </c>
       <c r="F23">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H23">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I23">
-        <v>6493</v>
+        <v>1885</v>
       </c>
       <c r="J23">
-        <v>7798</v>
+        <v>2264</v>
       </c>
       <c r="K23">
-        <v>4630</v>
+        <v>6020</v>
       </c>
       <c r="L23">
-        <v>1254</v>
+        <v>720</v>
       </c>
       <c r="M23">
-        <v>6616</v>
+        <v>2470</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
@@ -1670,13 +1694,13 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>2512</v>
+        <v>3140</v>
       </c>
       <c r="C24">
-        <v>251</v>
+        <v>879</v>
       </c>
       <c r="D24">
         <v>2261</v>
@@ -1685,28 +1709,28 @@
         <v>2261</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="I24">
-        <v>8209</v>
+        <v>12974</v>
       </c>
       <c r="J24">
-        <v>9860</v>
+        <v>12104</v>
       </c>
       <c r="K24">
-        <v>4950</v>
+        <v>5650</v>
       </c>
       <c r="L24">
-        <v>375</v>
+        <v>4180</v>
       </c>
       <c r="M24">
-        <v>7841</v>
+        <v>3189</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
@@ -1714,13 +1738,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>2713</v>
+        <v>3083</v>
       </c>
       <c r="C25">
-        <v>452</v>
+        <v>822</v>
       </c>
       <c r="D25">
         <v>2261</v>
@@ -1729,28 +1753,28 @@
         <v>2261</v>
       </c>
       <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
         <v>52</v>
       </c>
-      <c r="G25">
-        <v>56</v>
-      </c>
       <c r="H25">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I25">
-        <v>8596</v>
+        <v>11169</v>
       </c>
       <c r="J25">
-        <v>9307</v>
+        <v>10877</v>
       </c>
       <c r="K25">
-        <v>5940</v>
+        <v>6300</v>
       </c>
       <c r="L25">
-        <v>2739</v>
+        <v>3135</v>
       </c>
       <c r="M25">
-        <v>6805</v>
+        <v>5026</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
@@ -1758,13 +1782,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>2467</v>
+        <v>2475</v>
       </c>
       <c r="C26">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D26">
         <v>2261</v>
@@ -1773,28 +1797,28 @@
         <v>2261</v>
       </c>
       <c r="F26">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H26">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I26">
-        <v>5632</v>
+        <v>3895</v>
       </c>
       <c r="J26">
-        <v>6764</v>
+        <v>4671</v>
       </c>
       <c r="K26">
-        <v>6620</v>
+        <v>7220</v>
       </c>
       <c r="L26">
-        <v>569</v>
+        <v>765</v>
       </c>
       <c r="M26">
-        <v>6177</v>
+        <v>3360</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -1802,13 +1826,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>2419</v>
+        <v>3378</v>
       </c>
       <c r="C27">
-        <v>158</v>
+        <v>1117</v>
       </c>
       <c r="D27">
         <v>2261</v>
@@ -1817,28 +1841,28 @@
         <v>2261</v>
       </c>
       <c r="F27">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H27">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="I27">
-        <v>4387</v>
+        <v>14664</v>
       </c>
       <c r="J27">
-        <v>5216</v>
+        <v>15077</v>
       </c>
       <c r="K27">
-        <v>6650</v>
+        <v>6970</v>
       </c>
       <c r="L27">
-        <v>1025</v>
+        <v>5474</v>
       </c>
       <c r="M27">
-        <v>4745</v>
+        <v>6045</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
@@ -1846,13 +1870,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>3100</v>
+        <v>2984</v>
       </c>
       <c r="C28">
-        <v>839</v>
+        <v>723</v>
       </c>
       <c r="D28">
         <v>2261</v>
@@ -1861,28 +1885,28 @@
         <v>2261</v>
       </c>
       <c r="F28">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H28">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="I28">
-        <v>11663</v>
+        <v>6314</v>
       </c>
       <c r="J28">
-        <v>11110</v>
+        <v>6100</v>
       </c>
       <c r="K28">
-        <v>6510</v>
+        <v>7780</v>
       </c>
       <c r="L28">
-        <v>3328</v>
+        <v>1825</v>
       </c>
       <c r="M28">
-        <v>5202</v>
+        <v>3209</v>
       </c>
       <c r="N28" t="s">
         <v>38</v>
@@ -1890,13 +1914,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>2412</v>
+        <v>2424</v>
       </c>
       <c r="C29">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D29">
         <v>2261</v>
@@ -1905,28 +1929,28 @@
         <v>2261</v>
       </c>
       <c r="F29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="I29">
-        <v>4607</v>
+        <v>5703</v>
       </c>
       <c r="J29">
-        <v>5523</v>
+        <v>6789</v>
       </c>
       <c r="K29">
-        <v>6970</v>
+        <v>7620</v>
       </c>
       <c r="L29">
-        <v>705</v>
+        <v>1005</v>
       </c>
       <c r="M29">
-        <v>4970</v>
+        <v>6330</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
@@ -1934,13 +1958,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>2547</v>
+        <v>3169</v>
       </c>
       <c r="C30">
-        <v>286</v>
+        <v>908</v>
       </c>
       <c r="D30">
         <v>2261</v>
@@ -1949,28 +1973,28 @@
         <v>2261</v>
       </c>
       <c r="F30">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>53</v>
       </c>
       <c r="H30">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="I30">
-        <v>6215</v>
+        <v>14580</v>
       </c>
       <c r="J30">
-        <v>7464</v>
+        <v>14341</v>
       </c>
       <c r="K30">
-        <v>6830</v>
+        <v>7460</v>
       </c>
       <c r="L30">
-        <v>1785</v>
+        <v>3515</v>
       </c>
       <c r="M30">
-        <v>5415</v>
+        <v>5592</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>
@@ -1978,13 +2002,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>2644</v>
+        <v>2849</v>
       </c>
       <c r="C31">
-        <v>383</v>
+        <v>588</v>
       </c>
       <c r="D31">
         <v>2261</v>
@@ -1993,28 +2017,28 @@
         <v>2261</v>
       </c>
       <c r="F31">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I31">
-        <v>7610</v>
+        <v>9455</v>
       </c>
       <c r="J31">
-        <v>7789</v>
+        <v>9935</v>
       </c>
       <c r="K31">
-        <v>6900</v>
+        <v>8150</v>
       </c>
       <c r="L31">
-        <v>1523</v>
+        <v>2978</v>
       </c>
       <c r="M31">
-        <v>3920</v>
+        <v>3599</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
@@ -2022,13 +2046,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>2415</v>
+        <v>3305</v>
       </c>
       <c r="C32">
-        <v>154</v>
+        <v>1044</v>
       </c>
       <c r="D32">
         <v>2261</v>
@@ -2037,28 +2061,28 @@
         <v>2261</v>
       </c>
       <c r="F32">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="I32">
-        <v>3725</v>
+        <v>14583</v>
       </c>
       <c r="J32">
-        <v>4416</v>
+        <v>12669</v>
       </c>
       <c r="K32">
-        <v>7080</v>
+        <v>8510</v>
       </c>
       <c r="L32">
-        <v>1029</v>
+        <v>5069</v>
       </c>
       <c r="M32">
-        <v>4670</v>
+        <v>3818</v>
       </c>
       <c r="N32" t="s">
         <v>42</v>
@@ -2066,13 +2090,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>2501</v>
+        <v>2599</v>
       </c>
       <c r="C33">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="D33">
         <v>2261</v>
@@ -2081,28 +2105,28 @@
         <v>2261</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="I33">
-        <v>4126</v>
+        <v>4887</v>
       </c>
       <c r="J33">
-        <v>4292</v>
+        <v>5870</v>
       </c>
       <c r="K33">
-        <v>6820</v>
+        <v>9350</v>
       </c>
       <c r="L33">
-        <v>915</v>
+        <v>1035</v>
       </c>
       <c r="M33">
-        <v>3369</v>
+        <v>5747</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
@@ -2110,13 +2134,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>2425</v>
+        <v>2385</v>
       </c>
       <c r="C34">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D34">
         <v>2261</v>
@@ -2125,28 +2149,28 @@
         <v>2261</v>
       </c>
       <c r="F34">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I34">
-        <v>4536</v>
+        <v>4855</v>
       </c>
       <c r="J34">
-        <v>5412</v>
+        <v>5831</v>
       </c>
       <c r="K34">
-        <v>6320</v>
+        <v>9010</v>
       </c>
       <c r="L34">
-        <v>1015</v>
+        <v>420</v>
       </c>
       <c r="M34">
-        <v>3780</v>
+        <v>5840</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
@@ -2154,13 +2178,13 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>2355</v>
+        <v>2297</v>
       </c>
       <c r="C35">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>2261</v>
@@ -2169,28 +2193,28 @@
         <v>2261</v>
       </c>
       <c r="F35">
+        <v>47</v>
+      </c>
+      <c r="G35">
         <v>51</v>
       </c>
-      <c r="G35">
-        <v>53</v>
-      </c>
       <c r="H35">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I35">
-        <v>3002</v>
+        <v>1674</v>
       </c>
       <c r="J35">
-        <v>3605</v>
+        <v>2011</v>
       </c>
       <c r="K35">
-        <v>6140</v>
+        <v>8380</v>
       </c>
       <c r="L35">
-        <v>240</v>
+        <v>937</v>
       </c>
       <c r="M35">
-        <v>3439</v>
+        <v>1530</v>
       </c>
       <c r="N35" t="s">
         <v>45</v>
@@ -2198,13 +2222,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>2853</v>
+        <v>2818</v>
       </c>
       <c r="C36">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D36">
         <v>2261</v>
@@ -2213,28 +2237,28 @@
         <v>2261</v>
       </c>
       <c r="F36">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H36">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I36">
-        <v>5319</v>
+        <v>8839</v>
       </c>
       <c r="J36">
-        <v>4635</v>
+        <v>9919</v>
       </c>
       <c r="K36">
-        <v>5640</v>
+        <v>7110</v>
       </c>
       <c r="L36">
-        <v>1740</v>
+        <v>3501</v>
       </c>
       <c r="M36">
-        <v>577</v>
+        <v>2952</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
@@ -2242,13 +2266,13 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>2388</v>
+        <v>2881</v>
       </c>
       <c r="C37">
-        <v>127</v>
+        <v>620</v>
       </c>
       <c r="D37">
         <v>2261</v>
@@ -2257,28 +2281,28 @@
         <v>2261</v>
       </c>
       <c r="F37">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G37">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H37">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="I37">
-        <v>3061</v>
+        <v>10037</v>
       </c>
       <c r="J37">
-        <v>3677</v>
+        <v>9508</v>
       </c>
       <c r="K37">
-        <v>5440</v>
+        <v>7390</v>
       </c>
       <c r="L37">
-        <v>245</v>
+        <v>2700</v>
       </c>
       <c r="M37">
-        <v>3776</v>
+        <v>2990</v>
       </c>
       <c r="N37" t="s">
         <v>47</v>
@@ -2286,13 +2310,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>2531</v>
+        <v>2427</v>
       </c>
       <c r="C38">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="D38">
         <v>2261</v>
@@ -2301,28 +2325,28 @@
         <v>2261</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H38">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I38">
-        <v>7623</v>
+        <v>4589</v>
       </c>
       <c r="J38">
-        <v>8746</v>
+        <v>5453</v>
       </c>
       <c r="K38">
-        <v>5090</v>
+        <v>7820</v>
       </c>
       <c r="L38">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="M38">
-        <v>9680</v>
+        <v>4270</v>
       </c>
       <c r="N38" t="s">
         <v>48</v>
@@ -2330,13 +2354,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>2891</v>
+        <v>3123</v>
       </c>
       <c r="C39">
-        <v>630</v>
+        <v>862</v>
       </c>
       <c r="D39">
         <v>2261</v>
@@ -2345,28 +2369,28 @@
         <v>2261</v>
       </c>
       <c r="F39">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I39">
-        <v>9019</v>
+        <v>11335</v>
       </c>
       <c r="J39">
-        <v>8343</v>
+        <v>10446</v>
       </c>
       <c r="K39">
-        <v>5460</v>
+        <v>7590</v>
       </c>
       <c r="L39">
-        <v>2412</v>
+        <v>3400</v>
       </c>
       <c r="M39">
-        <v>2665</v>
+        <v>2905</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
@@ -2374,13 +2398,13 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>2568</v>
+        <v>3268</v>
       </c>
       <c r="C40">
-        <v>307</v>
+        <v>1007</v>
       </c>
       <c r="D40">
         <v>2261</v>
@@ -2389,28 +2413,28 @@
         <v>2261</v>
       </c>
       <c r="F40">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>54</v>
       </c>
       <c r="H40">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="I40">
-        <v>7391</v>
+        <v>14379</v>
       </c>
       <c r="J40">
-        <v>8846</v>
+        <v>13514</v>
       </c>
       <c r="K40">
-        <v>6040</v>
+        <v>7880</v>
       </c>
       <c r="L40">
-        <v>1915</v>
+        <v>3161</v>
       </c>
       <c r="M40">
-        <v>7552</v>
+        <v>5791</v>
       </c>
       <c r="N40" t="s">
         <v>50</v>
@@ -2418,13 +2442,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>2417</v>
+        <v>2563</v>
       </c>
       <c r="C41">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="D41">
         <v>2261</v>
@@ -2433,28 +2457,28 @@
         <v>2261</v>
       </c>
       <c r="F41">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G41">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H41">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="I41">
-        <v>3638</v>
+        <v>4882</v>
       </c>
       <c r="J41">
-        <v>4369</v>
+        <v>5846</v>
       </c>
       <c r="K41">
-        <v>6610</v>
+        <v>9010</v>
       </c>
       <c r="L41">
-        <v>1095</v>
+        <v>2190</v>
       </c>
       <c r="M41">
-        <v>4490</v>
+        <v>5250</v>
       </c>
       <c r="N41" t="s">
         <v>51</v>
@@ -2462,13 +2486,13 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>2362</v>
+        <v>3323</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>1062</v>
       </c>
       <c r="D42">
         <v>2261</v>
@@ -2477,25 +2501,28 @@
         <v>2261</v>
       </c>
       <c r="F42">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="G42">
+        <v>53</v>
       </c>
       <c r="H42">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="I42">
-        <v>2503</v>
+        <v>11938</v>
       </c>
       <c r="J42">
-        <v>3006</v>
+        <v>11540</v>
       </c>
       <c r="K42">
-        <v>6390</v>
+        <v>8700</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>3563</v>
       </c>
       <c r="M42">
-        <v>2165</v>
+        <v>3879</v>
       </c>
       <c r="N42" t="s">
         <v>52</v>
@@ -2503,13 +2530,13 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>2282</v>
+        <v>3403</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>1142</v>
       </c>
       <c r="D43">
         <v>2261</v>
@@ -2518,25 +2545,28 @@
         <v>2261</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <v>53</v>
       </c>
       <c r="H43">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="I43">
-        <v>566</v>
+        <v>19604</v>
       </c>
       <c r="J43">
-        <v>680</v>
+        <v>18455</v>
       </c>
       <c r="K43">
-        <v>5720</v>
+        <v>8990</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>5307</v>
       </c>
       <c r="M43">
-        <v>460</v>
+        <v>7845</v>
       </c>
       <c r="N43" t="s">
         <v>53</v>
@@ -2544,13 +2574,13 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>2302</v>
+        <v>2286</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>2261</v>
@@ -2559,28 +2589,28 @@
         <v>2261</v>
       </c>
       <c r="F44">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G44">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I44">
-        <v>872</v>
+        <v>763</v>
       </c>
       <c r="J44">
-        <v>1047</v>
+        <v>897</v>
       </c>
       <c r="K44">
-        <v>4720</v>
+        <v>10890</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="M44">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="N44" t="s">
         <v>54</v>
@@ -2588,13 +2618,13 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>2390</v>
+        <v>3240</v>
       </c>
       <c r="C45">
-        <v>129</v>
+        <v>979</v>
       </c>
       <c r="D45">
         <v>2261</v>
@@ -2603,28 +2633,28 @@
         <v>2261</v>
       </c>
       <c r="F45">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G45">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H45">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="I45">
-        <v>3367</v>
+        <v>13640</v>
       </c>
       <c r="J45">
-        <v>3995</v>
+        <v>12337</v>
       </c>
       <c r="K45">
-        <v>3990</v>
+        <v>10890</v>
       </c>
       <c r="L45">
-        <v>360</v>
+        <v>3762</v>
       </c>
       <c r="M45">
-        <v>2772</v>
+        <v>3532</v>
       </c>
       <c r="N45" t="s">
         <v>55</v>
@@ -2632,13 +2662,13 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>3223</v>
+        <v>2514</v>
       </c>
       <c r="C46">
-        <v>962</v>
+        <v>253</v>
       </c>
       <c r="D46">
         <v>2261</v>
@@ -2647,28 +2677,28 @@
         <v>2261</v>
       </c>
       <c r="F46">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G46">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H46">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="I46">
-        <v>11475</v>
+        <v>5001</v>
       </c>
       <c r="J46">
-        <v>11072</v>
+        <v>5988</v>
       </c>
       <c r="K46">
-        <v>4000</v>
+        <v>11180</v>
       </c>
       <c r="L46">
-        <v>3538</v>
+        <v>1650</v>
       </c>
       <c r="M46">
-        <v>4135</v>
+        <v>5353</v>
       </c>
       <c r="N46" t="s">
         <v>56</v>
@@ -2676,13 +2706,13 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>2654</v>
+        <v>2994</v>
       </c>
       <c r="C47">
-        <v>393</v>
+        <v>733</v>
       </c>
       <c r="D47">
         <v>2261</v>
@@ -2691,28 +2721,28 @@
         <v>2261</v>
       </c>
       <c r="F47">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G47">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H47">
         <v>153</v>
       </c>
       <c r="I47">
-        <v>6128</v>
+        <v>13666</v>
       </c>
       <c r="J47">
-        <v>6292</v>
+        <v>14474</v>
       </c>
       <c r="K47">
-        <v>5420</v>
+        <v>10660</v>
       </c>
       <c r="L47">
-        <v>1755</v>
+        <v>3795</v>
       </c>
       <c r="M47">
-        <v>2688</v>
+        <v>7349</v>
       </c>
       <c r="N47" t="s">
         <v>57</v>
@@ -2720,13 +2750,13 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>2437</v>
+        <v>3669</v>
       </c>
       <c r="C48">
-        <v>176</v>
+        <v>1408</v>
       </c>
       <c r="D48">
         <v>2261</v>
@@ -2735,28 +2765,28 @@
         <v>2261</v>
       </c>
       <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
         <v>52</v>
       </c>
-      <c r="G48">
-        <v>56</v>
-      </c>
       <c r="H48">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I48">
-        <v>3856</v>
+        <v>19502</v>
       </c>
       <c r="J48">
-        <v>4612</v>
+        <v>17691</v>
       </c>
       <c r="K48">
-        <v>5600</v>
+        <v>11050</v>
       </c>
       <c r="L48">
-        <v>1515</v>
+        <v>5282</v>
       </c>
       <c r="M48">
-        <v>4551</v>
+        <v>4346</v>
       </c>
       <c r="N48" t="s">
         <v>58</v>
@@ -2764,13 +2794,13 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>2307</v>
+        <v>2399</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D49">
         <v>2261</v>
@@ -2779,28 +2809,28 @@
         <v>2261</v>
       </c>
       <c r="F49">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H49">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I49">
-        <v>1067</v>
+        <v>5428</v>
       </c>
       <c r="J49">
-        <v>1281</v>
+        <v>6488</v>
       </c>
       <c r="K49">
-        <v>5510</v>
+        <v>12380</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="M49">
-        <v>795</v>
+        <v>7745</v>
       </c>
       <c r="N49" t="s">
         <v>59</v>
@@ -2808,43 +2838,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>2908</v>
+      </c>
+      <c r="C50">
+        <v>647</v>
+      </c>
+      <c r="D50">
+        <v>2261</v>
+      </c>
+      <c r="E50">
+        <v>2261</v>
+      </c>
+      <c r="F50">
+        <v>41</v>
+      </c>
+      <c r="G50">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>3027</v>
-      </c>
-      <c r="C50">
-        <v>766</v>
-      </c>
-      <c r="D50">
-        <v>2261</v>
-      </c>
-      <c r="E50">
-        <v>2261</v>
-      </c>
-      <c r="F50">
-        <v>52</v>
-      </c>
-      <c r="G50">
-        <v>56</v>
-      </c>
       <c r="H50">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I50">
-        <v>11643</v>
+        <v>9990</v>
       </c>
       <c r="J50">
-        <v>12519</v>
+        <v>9250</v>
       </c>
       <c r="K50">
-        <v>4670</v>
+        <v>11790</v>
       </c>
       <c r="L50">
-        <v>5006</v>
+        <v>2882</v>
       </c>
       <c r="M50">
-        <v>3535</v>
+        <v>2610</v>
       </c>
       <c r="N50" t="s">
         <v>60</v>
@@ -2852,43 +2882,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>2383</v>
+        <v>2579</v>
       </c>
       <c r="C51">
+        <v>318</v>
+      </c>
+      <c r="D51">
+        <v>2261</v>
+      </c>
+      <c r="E51">
+        <v>2261</v>
+      </c>
+      <c r="F51">
+        <v>41</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51">
         <v>122</v>
       </c>
-      <c r="D51">
-        <v>2261</v>
-      </c>
-      <c r="E51">
-        <v>2261</v>
-      </c>
-      <c r="F51">
-        <v>52</v>
-      </c>
-      <c r="G51">
-        <v>57</v>
-      </c>
-      <c r="H51">
-        <v>105</v>
-      </c>
       <c r="I51">
-        <v>2881</v>
+        <v>3959</v>
       </c>
       <c r="J51">
-        <v>3460</v>
+        <v>4755</v>
       </c>
       <c r="K51">
-        <v>5460</v>
+        <v>11290</v>
       </c>
       <c r="L51">
-        <v>955</v>
+        <v>403</v>
       </c>
       <c r="M51">
-        <v>2725</v>
+        <v>5090</v>
       </c>
       <c r="N51" t="s">
         <v>61</v>
@@ -2896,13 +2926,13 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>2409</v>
+        <v>3180</v>
       </c>
       <c r="C52">
-        <v>148</v>
+        <v>919</v>
       </c>
       <c r="D52">
         <v>2261</v>
@@ -2911,28 +2941,28 @@
         <v>2261</v>
       </c>
       <c r="F52">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G52">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="I52">
-        <v>2773</v>
+        <v>14778</v>
       </c>
       <c r="J52">
-        <v>3291</v>
+        <v>15672</v>
       </c>
       <c r="K52">
-        <v>5260</v>
+        <v>9990</v>
       </c>
       <c r="L52">
-        <v>1065</v>
+        <v>3884</v>
       </c>
       <c r="M52">
-        <v>2525</v>
+        <v>5105</v>
       </c>
       <c r="N52" t="s">
         <v>62</v>
@@ -2940,13 +2970,13 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>3176</v>
+        <v>2946</v>
       </c>
       <c r="C53">
-        <v>915</v>
+        <v>685</v>
       </c>
       <c r="D53">
         <v>2261</v>
@@ -2955,28 +2985,28 @@
         <v>2261</v>
       </c>
       <c r="F53">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G53">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="I53">
-        <v>9343</v>
+        <v>9889</v>
       </c>
       <c r="J53">
-        <v>8207</v>
+        <v>9332</v>
       </c>
       <c r="K53">
-        <v>4870</v>
+        <v>10560</v>
       </c>
       <c r="L53">
-        <v>3357</v>
+        <v>3557</v>
       </c>
       <c r="M53">
-        <v>2601</v>
+        <v>3320</v>
       </c>
       <c r="N53" t="s">
         <v>63</v>
@@ -2984,13 +3014,13 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>2684</v>
+        <v>3736</v>
       </c>
       <c r="C54">
-        <v>423</v>
+        <v>1475</v>
       </c>
       <c r="D54">
         <v>2261</v>
@@ -2999,28 +3029,28 @@
         <v>2261</v>
       </c>
       <c r="F54">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G54">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="I54">
-        <v>4468</v>
+        <v>22781</v>
       </c>
       <c r="J54">
-        <v>4508</v>
+        <v>31332</v>
       </c>
       <c r="K54">
-        <v>5210</v>
+        <v>10440</v>
       </c>
       <c r="L54">
-        <v>1046</v>
+        <v>1425</v>
       </c>
       <c r="M54">
-        <v>2024</v>
+        <v>21711</v>
       </c>
       <c r="N54" t="s">
         <v>64</v>
@@ -3028,43 +3058,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>4224</v>
+      </c>
+      <c r="C55">
+        <v>1963</v>
+      </c>
+      <c r="D55">
+        <v>2261</v>
+      </c>
+      <c r="E55">
+        <v>2261</v>
+      </c>
+      <c r="F55">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>2412</v>
-      </c>
-      <c r="C55">
-        <v>151</v>
-      </c>
-      <c r="D55">
-        <v>2261</v>
-      </c>
-      <c r="E55">
-        <v>2261</v>
-      </c>
-      <c r="F55">
-        <v>55</v>
-      </c>
       <c r="G55">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H55">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="I55">
-        <v>2768</v>
+        <v>34638</v>
       </c>
       <c r="J55">
-        <v>3325</v>
+        <v>37231</v>
       </c>
       <c r="K55">
-        <v>5140</v>
+        <v>12440</v>
       </c>
       <c r="L55">
-        <v>615</v>
+        <v>4574</v>
       </c>
       <c r="M55">
-        <v>3586</v>
+        <v>17904</v>
       </c>
       <c r="N55" t="s">
         <v>65</v>
@@ -3072,43 +3102,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>2805</v>
+        <v>2428</v>
       </c>
       <c r="C56">
-        <v>544</v>
+        <v>356</v>
       </c>
       <c r="D56">
-        <v>2261</v>
+        <v>2072</v>
       </c>
       <c r="E56">
-        <v>2261</v>
+        <v>2072</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H56">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="I56">
-        <v>8059</v>
+        <v>9109</v>
       </c>
       <c r="J56">
-        <v>8026</v>
+        <v>10940</v>
       </c>
       <c r="K56">
-        <v>4780</v>
+        <v>14440</v>
       </c>
       <c r="L56">
-        <v>3312</v>
+        <v>795</v>
       </c>
       <c r="M56">
-        <v>3250</v>
+        <v>12855</v>
       </c>
       <c r="N56" t="s">
         <v>66</v>
@@ -3116,13 +3146,13 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>3466</v>
+        <v>2811</v>
       </c>
       <c r="C57">
-        <v>1205</v>
+        <v>550</v>
       </c>
       <c r="D57">
         <v>2261</v>
@@ -3131,28 +3161,28 @@
         <v>2261</v>
       </c>
       <c r="F57">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G57">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H57">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="I57">
-        <v>16118</v>
+        <v>9965</v>
       </c>
       <c r="J57">
-        <v>14927</v>
+        <v>10883</v>
       </c>
       <c r="K57">
-        <v>5110</v>
+        <v>14090</v>
       </c>
       <c r="L57">
-        <v>4763</v>
+        <v>3382</v>
       </c>
       <c r="M57">
-        <v>3344</v>
+        <v>3015</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
@@ -3163,10 +3193,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>2406</v>
+        <v>2927</v>
       </c>
       <c r="C58">
-        <v>145</v>
+        <v>666</v>
       </c>
       <c r="D58">
         <v>2261</v>
@@ -3175,28 +3205,28 @@
         <v>2261</v>
       </c>
       <c r="F58">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G58">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I58">
-        <v>2688</v>
+        <v>10260</v>
       </c>
       <c r="J58">
-        <v>3216</v>
+        <v>9928</v>
       </c>
       <c r="K58">
-        <v>5110</v>
+        <v>13450</v>
       </c>
       <c r="L58">
-        <v>360</v>
+        <v>3129</v>
       </c>
       <c r="M58">
-        <v>4176</v>
+        <v>2669</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
@@ -3207,10 +3237,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2974</v>
+        <v>3040</v>
       </c>
       <c r="C59">
-        <v>713</v>
+        <v>779</v>
       </c>
       <c r="D59">
         <v>2261</v>
@@ -3219,28 +3249,28 @@
         <v>2261</v>
       </c>
       <c r="F59">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I59">
-        <v>10982</v>
+        <v>8668</v>
       </c>
       <c r="J59">
-        <v>10756</v>
+        <v>7908</v>
       </c>
       <c r="K59">
-        <v>4740</v>
+        <v>12750</v>
       </c>
       <c r="L59">
-        <v>3439</v>
+        <v>3160</v>
       </c>
       <c r="M59">
-        <v>3564</v>
+        <v>1832</v>
       </c>
       <c r="N59" t="s">
         <v>69</v>
@@ -3251,10 +3281,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>2760</v>
+        <v>3006</v>
       </c>
       <c r="C60">
-        <v>499</v>
+        <v>745</v>
       </c>
       <c r="D60">
         <v>2261</v>
@@ -3263,28 +3293,28 @@
         <v>2261</v>
       </c>
       <c r="F60">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G60">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H60">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I60">
-        <v>7517</v>
+        <v>12544</v>
       </c>
       <c r="J60">
-        <v>7126</v>
+        <v>13477</v>
       </c>
       <c r="K60">
-        <v>5350</v>
+        <v>11790</v>
       </c>
       <c r="L60">
-        <v>2460</v>
+        <v>3221</v>
       </c>
       <c r="M60">
-        <v>2398</v>
+        <v>5258</v>
       </c>
       <c r="N60" t="s">
         <v>70</v>
@@ -3295,10 +3325,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>2331</v>
+        <v>2462</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="D61">
         <v>2261</v>
@@ -3307,28 +3337,28 @@
         <v>2261</v>
       </c>
       <c r="F61">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G61">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H61">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I61">
-        <v>1897</v>
+        <v>3842</v>
       </c>
       <c r="J61">
-        <v>2278</v>
+        <v>4614</v>
       </c>
       <c r="K61">
-        <v>5710</v>
+        <v>11960</v>
       </c>
       <c r="L61">
-        <v>155</v>
+        <v>1325</v>
       </c>
       <c r="M61">
-        <v>2080</v>
+        <v>4585</v>
       </c>
       <c r="N61" t="s">
         <v>71</v>
@@ -3339,10 +3369,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>3091</v>
+        <v>3603</v>
       </c>
       <c r="C62">
-        <v>830</v>
+        <v>1342</v>
       </c>
       <c r="D62">
         <v>2261</v>
@@ -3354,25 +3384,25 @@
         <v>51</v>
       </c>
       <c r="G62">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H62">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I62">
-        <v>10629</v>
+        <v>20949</v>
       </c>
       <c r="J62">
-        <v>10244</v>
+        <v>18720</v>
       </c>
       <c r="K62">
-        <v>5370</v>
+        <v>11230</v>
       </c>
       <c r="L62">
-        <v>3164</v>
+        <v>5768</v>
       </c>
       <c r="M62">
-        <v>3749</v>
+        <v>7581</v>
       </c>
       <c r="N62" t="s">
         <v>72</v>
@@ -3383,10 +3413,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>2503</v>
+        <v>2418</v>
       </c>
       <c r="C63">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>2261</v>
@@ -3395,28 +3425,28 @@
         <v>2261</v>
       </c>
       <c r="F63">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I63">
-        <v>3569</v>
+        <v>4164</v>
       </c>
       <c r="J63">
-        <v>4286</v>
+        <v>4955</v>
       </c>
       <c r="K63">
-        <v>5860</v>
+        <v>11980</v>
       </c>
       <c r="L63">
-        <v>637</v>
+        <v>1300</v>
       </c>
       <c r="M63">
-        <v>4434</v>
+        <v>3060</v>
       </c>
       <c r="N63" t="s">
         <v>73</v>
@@ -3427,10 +3457,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>2868</v>
+        <v>3064</v>
       </c>
       <c r="C64">
-        <v>607</v>
+        <v>803</v>
       </c>
       <c r="D64">
         <v>2261</v>
@@ -3439,28 +3469,28 @@
         <v>2261</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G64">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I64">
-        <v>8075</v>
+        <v>12820</v>
       </c>
       <c r="J64">
-        <v>8805</v>
+        <v>13644</v>
       </c>
       <c r="K64">
-        <v>5710</v>
+        <v>11280</v>
       </c>
       <c r="L64">
-        <v>3801</v>
+        <v>4250</v>
       </c>
       <c r="M64">
-        <v>1310</v>
+        <v>5293</v>
       </c>
       <c r="N64" t="s">
         <v>74</v>
@@ -3471,10 +3501,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2355</v>
+        <v>3484</v>
       </c>
       <c r="C65">
-        <v>94</v>
+        <v>1223</v>
       </c>
       <c r="D65">
         <v>2261</v>
@@ -3483,28 +3513,28 @@
         <v>2261</v>
       </c>
       <c r="F65">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H65">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="I65">
-        <v>1885</v>
+        <v>10806</v>
       </c>
       <c r="J65">
-        <v>2264</v>
+        <v>10036</v>
       </c>
       <c r="K65">
-        <v>6020</v>
+        <v>11520</v>
       </c>
       <c r="L65">
-        <v>720</v>
+        <v>3407</v>
       </c>
       <c r="M65">
-        <v>2470</v>
+        <v>3643</v>
       </c>
       <c r="N65" t="s">
         <v>75</v>
@@ -3515,10 +3545,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>3140</v>
+        <v>3018</v>
       </c>
       <c r="C66">
-        <v>879</v>
+        <v>757</v>
       </c>
       <c r="D66">
         <v>2261</v>
@@ -3527,28 +3557,28 @@
         <v>2261</v>
       </c>
       <c r="F66">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G66">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I66">
-        <v>12974</v>
+        <v>14080</v>
       </c>
       <c r="J66">
-        <v>12104</v>
+        <v>11646</v>
       </c>
       <c r="K66">
-        <v>5650</v>
+        <v>11380</v>
       </c>
       <c r="L66">
-        <v>4180</v>
+        <v>3709</v>
       </c>
       <c r="M66">
-        <v>3189</v>
+        <v>5947</v>
       </c>
       <c r="N66" t="s">
         <v>76</v>
@@ -3559,10 +3589,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>3083</v>
+        <v>3509</v>
       </c>
       <c r="C67">
-        <v>822</v>
+        <v>1248</v>
       </c>
       <c r="D67">
         <v>2261</v>
@@ -3571,28 +3601,28 @@
         <v>2261</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G67">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H67">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I67">
-        <v>11169</v>
+        <v>19504</v>
       </c>
       <c r="J67">
-        <v>10877</v>
+        <v>17426</v>
       </c>
       <c r="K67">
-        <v>6300</v>
+        <v>11410</v>
       </c>
       <c r="L67">
-        <v>3135</v>
+        <v>4749</v>
       </c>
       <c r="M67">
-        <v>5026</v>
+        <v>6038</v>
       </c>
       <c r="N67" t="s">
         <v>77</v>
@@ -3603,10 +3633,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2475</v>
+        <v>2506</v>
       </c>
       <c r="C68">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D68">
         <v>2261</v>
@@ -3615,28 +3645,28 @@
         <v>2261</v>
       </c>
       <c r="F68">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G68">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H68">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I68">
-        <v>3895</v>
+        <v>6532</v>
       </c>
       <c r="J68">
-        <v>4671</v>
+        <v>7845</v>
       </c>
       <c r="K68">
-        <v>7220</v>
+        <v>12620</v>
       </c>
       <c r="L68">
-        <v>765</v>
+        <v>195</v>
       </c>
       <c r="M68">
-        <v>3360</v>
+        <v>5430</v>
       </c>
       <c r="N68" t="s">
         <v>78</v>
@@ -3647,10 +3677,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>3378</v>
+        <v>3897</v>
       </c>
       <c r="C69">
-        <v>1117</v>
+        <v>1636</v>
       </c>
       <c r="D69">
         <v>2261</v>
@@ -3659,28 +3689,28 @@
         <v>2261</v>
       </c>
       <c r="F69">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G69">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H69">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I69">
-        <v>14664</v>
+        <v>29024</v>
       </c>
       <c r="J69">
-        <v>15077</v>
+        <v>28828</v>
       </c>
       <c r="K69">
-        <v>6970</v>
+        <v>12150</v>
       </c>
       <c r="L69">
-        <v>5474</v>
+        <v>8150</v>
       </c>
       <c r="M69">
-        <v>6045</v>
+        <v>11239</v>
       </c>
       <c r="N69" t="s">
         <v>79</v>
@@ -3691,10 +3721,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2984</v>
+        <v>2395</v>
       </c>
       <c r="C70">
-        <v>723</v>
+        <v>134</v>
       </c>
       <c r="D70">
         <v>2261</v>
@@ -3703,28 +3733,28 @@
         <v>2261</v>
       </c>
       <c r="F70">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G70">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H70">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="I70">
-        <v>6314</v>
+        <v>4535</v>
       </c>
       <c r="J70">
-        <v>6100</v>
+        <v>5447</v>
       </c>
       <c r="K70">
-        <v>7780</v>
+        <v>13820</v>
       </c>
       <c r="L70">
-        <v>1825</v>
+        <v>410</v>
       </c>
       <c r="M70">
-        <v>3209</v>
+        <v>5355</v>
       </c>
       <c r="N70" t="s">
         <v>80</v>
@@ -3735,10 +3765,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>2424</v>
+        <v>3138</v>
       </c>
       <c r="C71">
-        <v>163</v>
+        <v>877</v>
       </c>
       <c r="D71">
         <v>2261</v>
@@ -3750,25 +3780,25 @@
         <v>44</v>
       </c>
       <c r="G71">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H71">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I71">
-        <v>5703</v>
+        <v>14525</v>
       </c>
       <c r="J71">
-        <v>6789</v>
+        <v>14717</v>
       </c>
       <c r="K71">
-        <v>7620</v>
+        <v>12990</v>
       </c>
       <c r="L71">
-        <v>1005</v>
+        <v>3735</v>
       </c>
       <c r="M71">
-        <v>6330</v>
+        <v>6680</v>
       </c>
       <c r="N71" t="s">
         <v>81</v>
@@ -3779,10 +3809,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>3169</v>
+        <v>3458</v>
       </c>
       <c r="C72">
-        <v>908</v>
+        <v>1197</v>
       </c>
       <c r="D72">
         <v>2261</v>
@@ -3791,28 +3821,28 @@
         <v>2261</v>
       </c>
       <c r="F72">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G72">
         <v>53</v>
       </c>
       <c r="H72">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="I72">
-        <v>14580</v>
+        <v>15927</v>
       </c>
       <c r="J72">
-        <v>14341</v>
+        <v>16101</v>
       </c>
       <c r="K72">
-        <v>7460</v>
+        <v>13170</v>
       </c>
       <c r="L72">
-        <v>3515</v>
+        <v>6030</v>
       </c>
       <c r="M72">
-        <v>5592</v>
+        <v>4347</v>
       </c>
       <c r="N72" t="s">
         <v>82</v>
@@ -3823,10 +3853,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>2849</v>
+        <v>3300</v>
       </c>
       <c r="C73">
-        <v>588</v>
+        <v>1039</v>
       </c>
       <c r="D73">
         <v>2261</v>
@@ -3835,28 +3865,28 @@
         <v>2261</v>
       </c>
       <c r="F73">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G73">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H73">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="I73">
-        <v>9455</v>
+        <v>14790</v>
       </c>
       <c r="J73">
-        <v>9935</v>
+        <v>14940</v>
       </c>
       <c r="K73">
-        <v>8150</v>
+        <v>13760</v>
       </c>
       <c r="L73">
-        <v>2978</v>
+        <v>5521</v>
       </c>
       <c r="M73">
-        <v>3599</v>
+        <v>5861</v>
       </c>
       <c r="N73" t="s">
         <v>83</v>
@@ -3867,10 +3897,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>3305</v>
+        <v>3490</v>
       </c>
       <c r="C74">
-        <v>1044</v>
+        <v>1229</v>
       </c>
       <c r="D74">
         <v>2261</v>
@@ -3879,28 +3909,28 @@
         <v>2261</v>
       </c>
       <c r="F74">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G74">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H74">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I74">
-        <v>14583</v>
+        <v>18257</v>
       </c>
       <c r="J74">
-        <v>12669</v>
+        <v>17031</v>
       </c>
       <c r="K74">
-        <v>8510</v>
+        <v>14000</v>
       </c>
       <c r="L74">
-        <v>5069</v>
+        <v>4492</v>
       </c>
       <c r="M74">
-        <v>3818</v>
+        <v>6724</v>
       </c>
       <c r="N74" t="s">
         <v>84</v>
@@ -3911,10 +3941,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2599</v>
+        <v>2815</v>
       </c>
       <c r="C75">
-        <v>338</v>
+        <v>554</v>
       </c>
       <c r="D75">
         <v>2261</v>
@@ -3923,28 +3953,28 @@
         <v>2261</v>
       </c>
       <c r="F75">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G75">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H75">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I75">
-        <v>4887</v>
+        <v>14297</v>
       </c>
       <c r="J75">
-        <v>5870</v>
+        <v>17165</v>
       </c>
       <c r="K75">
-        <v>9350</v>
+        <v>14610</v>
       </c>
       <c r="L75">
-        <v>1035</v>
+        <v>2370</v>
       </c>
       <c r="M75">
-        <v>5747</v>
+        <v>14400</v>
       </c>
       <c r="N75" t="s">
         <v>85</v>
@@ -3955,10 +3985,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>2385</v>
+        <v>3193</v>
       </c>
       <c r="C76">
-        <v>124</v>
+        <v>932</v>
       </c>
       <c r="D76">
         <v>2261</v>
@@ -3967,28 +3997,28 @@
         <v>2261</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G76">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H76">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="I76">
-        <v>4855</v>
+        <v>13004</v>
       </c>
       <c r="J76">
-        <v>5831</v>
+        <v>15578</v>
       </c>
       <c r="K76">
-        <v>9010</v>
+        <v>15130</v>
       </c>
       <c r="L76">
-        <v>420</v>
+        <v>5745</v>
       </c>
       <c r="M76">
-        <v>5840</v>
+        <v>13275</v>
       </c>
       <c r="N76" t="s">
         <v>86</v>
@@ -3999,10 +4029,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>2297</v>
+        <v>2706</v>
       </c>
       <c r="C77">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="D77">
         <v>2261</v>
@@ -4011,28 +4041,28 @@
         <v>2261</v>
       </c>
       <c r="F77">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G77">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H77">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I77">
-        <v>1674</v>
+        <v>9883</v>
       </c>
       <c r="J77">
-        <v>2011</v>
+        <v>11850</v>
       </c>
       <c r="K77">
-        <v>8380</v>
+        <v>15220</v>
       </c>
       <c r="L77">
-        <v>937</v>
+        <v>2885</v>
       </c>
       <c r="M77">
-        <v>1530</v>
+        <v>10283</v>
       </c>
       <c r="N77" t="s">
         <v>87</v>
@@ -4043,10 +4073,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>2818</v>
+        <v>3033</v>
       </c>
       <c r="C78">
-        <v>557</v>
+        <v>772</v>
       </c>
       <c r="D78">
         <v>2261</v>
@@ -4055,28 +4085,28 @@
         <v>2261</v>
       </c>
       <c r="F78">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G78">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H78">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I78">
-        <v>8839</v>
+        <v>12099</v>
       </c>
       <c r="J78">
-        <v>9919</v>
+        <v>11371</v>
       </c>
       <c r="K78">
-        <v>7110</v>
+        <v>14890</v>
       </c>
       <c r="L78">
-        <v>3501</v>
+        <v>3600</v>
       </c>
       <c r="M78">
-        <v>2952</v>
+        <v>2897</v>
       </c>
       <c r="N78" t="s">
         <v>88</v>
@@ -4087,10 +4117,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2881</v>
+        <v>3541</v>
       </c>
       <c r="C79">
-        <v>620</v>
+        <v>1280</v>
       </c>
       <c r="D79">
         <v>2261</v>
@@ -4099,28 +4129,28 @@
         <v>2261</v>
       </c>
       <c r="F79">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G79">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H79">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="I79">
-        <v>10037</v>
+        <v>17513</v>
       </c>
       <c r="J79">
-        <v>9508</v>
+        <v>15709</v>
       </c>
       <c r="K79">
-        <v>7390</v>
+        <v>14190</v>
       </c>
       <c r="L79">
-        <v>2700</v>
+        <v>5466</v>
       </c>
       <c r="M79">
-        <v>2990</v>
+        <v>4449</v>
       </c>
       <c r="N79" t="s">
         <v>89</v>
@@ -4131,10 +4161,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2427</v>
+        <v>2961</v>
       </c>
       <c r="C80">
-        <v>166</v>
+        <v>700</v>
       </c>
       <c r="D80">
         <v>2261</v>
@@ -4143,28 +4173,28 @@
         <v>2261</v>
       </c>
       <c r="F80">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H80">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="I80">
-        <v>4589</v>
+        <v>11713</v>
       </c>
       <c r="J80">
-        <v>5453</v>
+        <v>10964</v>
       </c>
       <c r="K80">
-        <v>7820</v>
+        <v>14350</v>
       </c>
       <c r="L80">
-        <v>1185</v>
+        <v>4063</v>
       </c>
       <c r="M80">
-        <v>4270</v>
+        <v>2119</v>
       </c>
       <c r="N80" t="s">
         <v>90</v>
@@ -4175,10 +4205,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>3123</v>
+        <v>3417</v>
       </c>
       <c r="C81">
-        <v>862</v>
+        <v>1156</v>
       </c>
       <c r="D81">
         <v>2261</v>
@@ -4187,28 +4217,28 @@
         <v>2261</v>
       </c>
       <c r="F81">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G81">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H81">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I81">
-        <v>11335</v>
+        <v>14811</v>
       </c>
       <c r="J81">
-        <v>10446</v>
+        <v>13136</v>
       </c>
       <c r="K81">
-        <v>7590</v>
+        <v>14020</v>
       </c>
       <c r="L81">
-        <v>3400</v>
+        <v>3813</v>
       </c>
       <c r="M81">
-        <v>2905</v>
+        <v>4006</v>
       </c>
       <c r="N81" t="s">
         <v>91</v>
@@ -4219,10 +4249,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>3268</v>
+        <v>2587</v>
       </c>
       <c r="C82">
-        <v>1007</v>
+        <v>326</v>
       </c>
       <c r="D82">
         <v>2261</v>
@@ -4231,28 +4261,28 @@
         <v>2261</v>
       </c>
       <c r="F82">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G82">
         <v>54</v>
       </c>
       <c r="H82">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="I82">
-        <v>14379</v>
+        <v>4877</v>
       </c>
       <c r="J82">
-        <v>13514</v>
+        <v>5797</v>
       </c>
       <c r="K82">
-        <v>7880</v>
+        <v>13850</v>
       </c>
       <c r="L82">
-        <v>3161</v>
+        <v>960</v>
       </c>
       <c r="M82">
-        <v>5791</v>
+        <v>7130</v>
       </c>
       <c r="N82" t="s">
         <v>92</v>
@@ -4263,10 +4293,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>2563</v>
+        <v>3921</v>
       </c>
       <c r="C83">
-        <v>302</v>
+        <v>1660</v>
       </c>
       <c r="D83">
         <v>2261</v>
@@ -4275,31 +4305,380 @@
         <v>2261</v>
       </c>
       <c r="F83">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G83">
         <v>53</v>
       </c>
       <c r="H83">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="I83">
-        <v>4882</v>
+        <v>24974</v>
       </c>
       <c r="J83">
-        <v>5846</v>
+        <v>22158</v>
       </c>
       <c r="K83">
-        <v>9010</v>
+        <v>12240</v>
       </c>
       <c r="L83">
-        <v>2190</v>
+        <v>6771</v>
       </c>
       <c r="M83">
-        <v>5250</v>
+        <v>7767</v>
       </c>
       <c r="N83" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>2483</v>
+      </c>
+      <c r="C84">
+        <v>222</v>
+      </c>
+      <c r="D84">
+        <v>2261</v>
+      </c>
+      <c r="E84">
+        <v>2261</v>
+      </c>
+      <c r="F84">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>51</v>
+      </c>
+      <c r="H84">
+        <v>93</v>
+      </c>
+      <c r="I84">
+        <v>5264</v>
+      </c>
+      <c r="J84">
+        <v>6322</v>
+      </c>
+      <c r="K84">
+        <v>13240</v>
+      </c>
+      <c r="L84">
+        <v>110</v>
+      </c>
+      <c r="M84">
+        <v>4144</v>
+      </c>
+      <c r="N84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>2941</v>
+      </c>
+      <c r="C85">
+        <v>680</v>
+      </c>
+      <c r="D85">
+        <v>2261</v>
+      </c>
+      <c r="E85">
+        <v>2261</v>
+      </c>
+      <c r="F85">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>52</v>
+      </c>
+      <c r="H85">
+        <v>144</v>
+      </c>
+      <c r="I85">
+        <v>11744</v>
+      </c>
+      <c r="J85">
+        <v>11678</v>
+      </c>
+      <c r="K85">
+        <v>12550</v>
+      </c>
+      <c r="L85">
+        <v>3428</v>
+      </c>
+      <c r="M85">
+        <v>3815</v>
+      </c>
+      <c r="N85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>3660</v>
+      </c>
+      <c r="C86">
+        <v>1399</v>
+      </c>
+      <c r="D86">
+        <v>2261</v>
+      </c>
+      <c r="E86">
+        <v>2261</v>
+      </c>
+      <c r="F86">
+        <v>41</v>
+      </c>
+      <c r="G86">
+        <v>51</v>
+      </c>
+      <c r="H86">
+        <v>178</v>
+      </c>
+      <c r="I86">
+        <v>16738</v>
+      </c>
+      <c r="J86">
+        <v>14303</v>
+      </c>
+      <c r="K86">
+        <v>12380</v>
+      </c>
+      <c r="L86">
+        <v>4654</v>
+      </c>
+      <c r="M86">
+        <v>4683</v>
+      </c>
+      <c r="N86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>3222</v>
+      </c>
+      <c r="C87">
+        <v>961</v>
+      </c>
+      <c r="D87">
+        <v>2261</v>
+      </c>
+      <c r="E87">
+        <v>2261</v>
+      </c>
+      <c r="F87">
+        <v>42</v>
+      </c>
+      <c r="G87">
+        <v>52</v>
+      </c>
+      <c r="H87">
+        <v>161</v>
+      </c>
+      <c r="I87">
+        <v>15029</v>
+      </c>
+      <c r="J87">
+        <v>15029</v>
+      </c>
+      <c r="K87">
+        <v>12580</v>
+      </c>
+      <c r="L87">
+        <v>4725</v>
+      </c>
+      <c r="M87">
+        <v>4547</v>
+      </c>
+      <c r="N87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>3349</v>
+      </c>
+      <c r="C88">
+        <v>1088</v>
+      </c>
+      <c r="D88">
+        <v>2261</v>
+      </c>
+      <c r="E88">
+        <v>2261</v>
+      </c>
+      <c r="F88">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>51</v>
+      </c>
+      <c r="H88">
+        <v>181</v>
+      </c>
+      <c r="I88">
+        <v>16728</v>
+      </c>
+      <c r="J88">
+        <v>15192</v>
+      </c>
+      <c r="K88">
+        <v>13070</v>
+      </c>
+      <c r="L88">
+        <v>3820</v>
+      </c>
+      <c r="M88">
+        <v>5293</v>
+      </c>
+      <c r="N88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>2415</v>
+      </c>
+      <c r="C89">
+        <v>154</v>
+      </c>
+      <c r="D89">
+        <v>2261</v>
+      </c>
+      <c r="E89">
+        <v>2261</v>
+      </c>
+      <c r="F89">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>51</v>
+      </c>
+      <c r="H89">
+        <v>104</v>
+      </c>
+      <c r="I89">
+        <v>4534</v>
+      </c>
+      <c r="J89">
+        <v>5446</v>
+      </c>
+      <c r="K89">
+        <v>13500</v>
+      </c>
+      <c r="L89">
+        <v>540</v>
+      </c>
+      <c r="M89">
+        <v>4235</v>
+      </c>
+      <c r="N89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>4005</v>
+      </c>
+      <c r="C90">
+        <v>1744</v>
+      </c>
+      <c r="D90">
+        <v>2261</v>
+      </c>
+      <c r="E90">
+        <v>2261</v>
+      </c>
+      <c r="F90">
+        <v>47</v>
+      </c>
+      <c r="G90">
+        <v>51</v>
+      </c>
+      <c r="H90">
+        <v>173</v>
+      </c>
+      <c r="I90">
+        <v>26783</v>
+      </c>
+      <c r="J90">
+        <v>24032</v>
+      </c>
+      <c r="K90">
+        <v>12700</v>
+      </c>
+      <c r="L90">
+        <v>7067</v>
+      </c>
+      <c r="M90">
+        <v>6312</v>
+      </c>
+      <c r="N90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>763</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>763</v>
+      </c>
+      <c r="E91">
+        <v>763</v>
+      </c>
+      <c r="F91">
+        <v>66</v>
+      </c>
+      <c r="H91">
+        <v>66</v>
+      </c>
+      <c r="I91">
+        <v>9</v>
+      </c>
+      <c r="J91">
+        <v>11</v>
+      </c>
+      <c r="K91">
+        <v>13840</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>15</v>
+      </c>
+      <c r="N91" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
